--- a/V2 BETA/BOM/V2 Frame BOM 00.xlsx
+++ b/V2 BETA/BOM/V2 Frame BOM 00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/V2 BETA/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4886D49D-385F-46FB-BB7B-37D8CE784BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{434AF2AA-A929-4000-BAC2-F119F60A7D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" xr2:uid="{200A94AB-F0CE-4D20-A266-BB0D4302F753}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" xr2:uid="{34196D03-54D1-4894-963E-205B34BC68A2}"/>
   </bookViews>
   <sheets>
     <sheet name="V2 Frame BOM 00" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Part name</t>
   </si>
@@ -82,13 +82,22 @@
     <t>2020 Profile 172mm</t>
   </si>
   <si>
+    <t>X Top Rear Support Bracket_1x</t>
+  </si>
+  <si>
     <t>Joining Plate 90 Deg</t>
   </si>
   <si>
     <t>Joining plate 90</t>
   </si>
   <si>
-    <t>Fastener</t>
+    <t>M5 Nut Locknut</t>
+  </si>
+  <si>
+    <t>Leg Nut</t>
+  </si>
+  <si>
+    <t>M5x30 BH ISO 7380</t>
   </si>
 </sst>
 </file>
@@ -948,12 +957,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CCBBA0-94AB-4572-A791-6F1395E491A6}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6EFDDB-3B3A-4104-A103-942C97077442}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -978,7 +985,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -986,117 +993,140 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>82</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B16">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
-    <sortCondition ref="A2:A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C16">
+    <sortCondition ref="A2:A16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
